--- a/boards/arm/stm32/px_hero/inc/px_board_gpio.xlsx
+++ b/boards/arm/stm32/px_hero/inc/px_board_gpio.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E35F9-4F07-4B3A-A4B4-28180AA923CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161836B9-6198-4D41-BECE-553F8EEE1CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GPIO" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1238,9 +1243,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
@@ -1254,17 +1259,16 @@
     <col min="12" max="12" width="18.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="2.7109375" style="3" customWidth="1"/>
     <col min="17" max="17" width="129.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="3"/>
-    <col min="19" max="19" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="18" max="18" width="2.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="3" customWidth="1"/>
     <col min="21" max="21" width="62.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1303,13 +1307,13 @@
         <v>88</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1367,15 +1371,15 @@
         <v>#define PX_GPIO_3 PX_GPIO(A, 0, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S2" s="3" t="str">
+        <f>CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
+        <v>#define PX_GPIO_A0 PX_GPIO_3</v>
+      </c>
+      <c r="U2" s="3" t="str">
         <f>CONCATENATE("static const px_gpio_handle_t ",LOWER($A2)," = {",$A2,"};")</f>
         <v>static const px_gpio_handle_t px_gpio_3 = {PX_GPIO_3};</v>
       </c>
-      <c r="U2" s="3" t="str">
-        <f>CONCATENATE("#define PX_GPIO_",$B2,$C2," ",$A2)</f>
-        <v>#define PX_GPIO_A0 PX_GPIO_3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>70</v>
       </c>
@@ -1433,15 +1437,15 @@
         <v>#define PX_GPIO_2 PX_GPIO(A, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_PP, PX_GPIO_OSPEED_LO, PX_GPIO_PULL_DN, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S3" s="3" t="str">
-        <f t="shared" ref="S3:S56" si="1">CONCATENATE("static const px_gpio_handle_t ",LOWER($A3)," = {",$A3,"};")</f>
+        <f t="shared" ref="S3:S55" si="1">CONCATENATE("#define PX_GPIO_",$B3,$C3," ",$A3)</f>
+        <v>#define PX_GPIO_A1 PX_GPIO_2</v>
+      </c>
+      <c r="U3" s="3" t="str">
+        <f t="shared" ref="U3:U56" si="2">CONCATENATE("static const px_gpio_handle_t ",LOWER($A3)," = {",$A3,"};")</f>
         <v>static const px_gpio_handle_t px_gpio_2 = {PX_GPIO_2};</v>
       </c>
-      <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3:U55" si="2">CONCATENATE("#define PX_GPIO_",$B3,$C3," ",$A3)</f>
-        <v>#define PX_GPIO_A1 PX_GPIO_2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
@@ -1500,14 +1504,14 @@
       </c>
       <c r="S4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart2_tx = {PX_GPIO_UART2_TX};</v>
+        <v>#define PX_GPIO_A2 PX_GPIO_UART2_TX</v>
       </c>
       <c r="U4" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A2 PX_GPIO_UART2_TX</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart2_tx = {PX_GPIO_UART2_TX};</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
@@ -1566,14 +1570,14 @@
       </c>
       <c r="S5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart2_rx = {PX_GPIO_UART2_RX};</v>
+        <v>#define PX_GPIO_A3 PX_GPIO_UART2_RX</v>
       </c>
       <c r="U5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A3 PX_GPIO_UART2_RX</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart2_rx = {PX_GPIO_UART2_RX};</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>92</v>
       </c>
@@ -1632,14 +1636,14 @@
       </c>
       <c r="S6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_dac1 = {PX_GPIO_DAC1};</v>
+        <v>#define PX_GPIO_A4 PX_GPIO_DAC1</v>
       </c>
       <c r="U6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A4 PX_GPIO_DAC1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_dac1 = {PX_GPIO_DAC1};</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1698,14 +1702,14 @@
       </c>
       <c r="S7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_1 = {PX_GPIO_1};</v>
+        <v>#define PX_GPIO_A5 PX_GPIO_1</v>
       </c>
       <c r="U7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A5 PX_GPIO_1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_1 = {PX_GPIO_1};</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -1764,14 +1768,14 @@
       </c>
       <c r="S8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_0 = {PX_GPIO_0};</v>
+        <v>#define PX_GPIO_A6 PX_GPIO_0</v>
       </c>
       <c r="U8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A6 PX_GPIO_0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_0 = {PX_GPIO_0};</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1830,14 +1834,14 @@
       </c>
       <c r="S9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_adc3 = {PX_GPIO_ADC3};</v>
+        <v>#define PX_GPIO_A7 PX_GPIO_ADC3</v>
       </c>
       <c r="U9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A7 PX_GPIO_ADC3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc3 = {PX_GPIO_ADC3};</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -1896,14 +1900,14 @@
       </c>
       <c r="S10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_usb_det = {PX_GPIO_USB_DET};</v>
+        <v>#define PX_GPIO_A8 PX_GPIO_USB_DET</v>
       </c>
       <c r="U10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A8 PX_GPIO_USB_DET</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_usb_det = {PX_GPIO_USB_DET};</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
@@ -1962,14 +1966,14 @@
       </c>
       <c r="S11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart1_tx = {PX_GPIO_UART1_TX};</v>
+        <v>#define PX_GPIO_A9 PX_GPIO_UART1_TX</v>
       </c>
       <c r="U11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A9 PX_GPIO_UART1_TX</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart1_tx = {PX_GPIO_UART1_TX};</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
@@ -2028,14 +2032,14 @@
       </c>
       <c r="S12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart1_rx = {PX_GPIO_UART1_RX};</v>
+        <v>#define PX_GPIO_A10 PX_GPIO_UART1_RX</v>
       </c>
       <c r="U12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A10 PX_GPIO_UART1_RX</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart1_rx = {PX_GPIO_UART1_RX};</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>46</v>
       </c>
@@ -2094,14 +2098,14 @@
       </c>
       <c r="S13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_usb1d_n = {PX_GPIO_USB1D_N};</v>
+        <v>#define PX_GPIO_A11 PX_GPIO_USB1D_N</v>
       </c>
       <c r="U13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A11 PX_GPIO_USB1D_N</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_usb1d_n = {PX_GPIO_USB1D_N};</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>47</v>
       </c>
@@ -2160,14 +2164,14 @@
       </c>
       <c r="S14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_usb1d_p = {PX_GPIO_USB1D_P};</v>
+        <v>#define PX_GPIO_A12 PX_GPIO_USB1D_P</v>
       </c>
       <c r="U14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A12 PX_GPIO_USB1D_P</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_usb1d_p = {PX_GPIO_USB1D_P};</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>48</v>
       </c>
@@ -2226,14 +2230,14 @@
       </c>
       <c r="S15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_swdio = {PX_GPIO_SWDIO};</v>
+        <v>#define PX_GPIO_A13 PX_GPIO_SWDIO</v>
       </c>
       <c r="U15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A13 PX_GPIO_SWDIO</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_swdio = {PX_GPIO_SWDIO};</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2292,14 +2296,14 @@
       </c>
       <c r="S16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_swdck = {PX_GPIO_SWDCK};</v>
+        <v>#define PX_GPIO_A14 PX_GPIO_SWDCK</v>
       </c>
       <c r="U16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A14 PX_GPIO_SWDCK</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_swdck = {PX_GPIO_SWDCK};</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>50</v>
       </c>
@@ -2358,14 +2362,14 @@
       </c>
       <c r="S17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_btn_5_no = {PX_GPIO_LCD_BTN_5_NO};</v>
+        <v>#define PX_GPIO_A15 PX_GPIO_LCD_BTN_5_NO</v>
       </c>
       <c r="U17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_A15 PX_GPIO_LCD_BTN_5_NO</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_5_no = {PX_GPIO_LCD_BTN_5_NO};</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -2383,7 +2387,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>84</v>
       </c>
@@ -2442,14 +2446,14 @@
       </c>
       <c r="S19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_adc0 = {PX_GPIO_ADC0};</v>
+        <v>#define PX_GPIO_B0 PX_GPIO_ADC0</v>
       </c>
       <c r="U19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B0 PX_GPIO_ADC0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc0 = {PX_GPIO_ADC0};</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>69</v>
       </c>
@@ -2508,14 +2512,14 @@
       </c>
       <c r="S20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_adc_vbat = {PX_GPIO_ADC_VBAT};</v>
+        <v>#define PX_GPIO_B1 PX_GPIO_ADC_VBAT</v>
       </c>
       <c r="U20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B1 PX_GPIO_ADC_VBAT</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc_vbat = {PX_GPIO_ADC_VBAT};</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>93</v>
       </c>
@@ -2574,14 +2578,14 @@
       </c>
       <c r="S21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_cs_sf = {PX_GPIO_SPI2_CS_SF};</v>
+        <v>#define PX_GPIO_B2 PX_GPIO_SPI2_CS_SF</v>
       </c>
       <c r="U21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B2 PX_GPIO_SPI2_CS_SF</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_cs_sf = {PX_GPIO_SPI2_CS_SF};</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -2640,14 +2644,14 @@
       </c>
       <c r="S22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi1_sck = {PX_GPIO_SPI1_SCK};</v>
+        <v>#define PX_GPIO_B3 PX_GPIO_SPI1_SCK</v>
       </c>
       <c r="U22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B3 PX_GPIO_SPI1_SCK</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_sck = {PX_GPIO_SPI1_SCK};</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -2706,14 +2710,14 @@
       </c>
       <c r="S23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi1_miso = {PX_GPIO_SPI1_MISO};</v>
+        <v>#define PX_GPIO_B4 PX_GPIO_SPI1_MISO</v>
       </c>
       <c r="U23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B4 PX_GPIO_SPI1_MISO</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_miso = {PX_GPIO_SPI1_MISO};</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>57</v>
       </c>
@@ -2772,14 +2776,14 @@
       </c>
       <c r="S24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi1_mosi = {PX_GPIO_SPI1_MOSI};</v>
+        <v>#define PX_GPIO_B5 PX_GPIO_SPI1_MOSI</v>
       </c>
       <c r="U24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B5 PX_GPIO_SPI1_MOSI</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_mosi = {PX_GPIO_SPI1_MOSI};</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>85</v>
       </c>
@@ -2838,14 +2842,14 @@
       </c>
       <c r="S25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi1_cs = {PX_GPIO_SPI1_CS};</v>
+        <v>#define PX_GPIO_B6 PX_GPIO_SPI1_CS</v>
       </c>
       <c r="U25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B6 PX_GPIO_SPI1_CS</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_cs = {PX_GPIO_SPI1_CS};</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>86</v>
       </c>
@@ -2904,14 +2908,14 @@
       </c>
       <c r="S26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_7_sd_cd = {PX_GPIO_7_SD_CD};</v>
+        <v>#define PX_GPIO_B7 PX_GPIO_7_SD_CD</v>
       </c>
       <c r="U26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B7 PX_GPIO_7_SD_CD</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_7_sd_cd = {PX_GPIO_7_SD_CD};</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>58</v>
       </c>
@@ -2970,14 +2974,14 @@
       </c>
       <c r="S27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_i2c1_scl = {PX_GPIO_I2C1_SCL};</v>
+        <v>#define PX_GPIO_B8 PX_GPIO_I2C1_SCL</v>
       </c>
       <c r="U27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B8 PX_GPIO_I2C1_SCL</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c1_scl = {PX_GPIO_I2C1_SCL};</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
@@ -3036,14 +3040,14 @@
       </c>
       <c r="S28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_i2c1_sda = {PX_GPIO_I2C1_SDA};</v>
+        <v>#define PX_GPIO_B9 PX_GPIO_I2C1_SDA</v>
       </c>
       <c r="U28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B9 PX_GPIO_I2C1_SDA</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_i2c1_sda = {PX_GPIO_I2C1_SDA};</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>54</v>
       </c>
@@ -3102,14 +3106,14 @@
       </c>
       <c r="S29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_cs_lcd = {PX_GPIO_SPI2_CS_LCD};</v>
+        <v>#define PX_GPIO_B10 PX_GPIO_SPI2_CS_LCD</v>
       </c>
       <c r="U29" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B10 PX_GPIO_SPI2_CS_LCD</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_cs_lcd = {PX_GPIO_SPI2_CS_LCD};</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -3168,14 +3172,14 @@
       </c>
       <c r="S30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_rs = {PX_GPIO_LCD_RS};</v>
+        <v>#define PX_GPIO_B11 PX_GPIO_LCD_RS</v>
       </c>
       <c r="U30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B11 PX_GPIO_LCD_RS</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_rs = {PX_GPIO_LCD_RS};</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>87</v>
       </c>
@@ -3234,14 +3238,14 @@
       </c>
       <c r="S31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_backlight = {PX_GPIO_LCD_BACKLIGHT};</v>
+        <v>#define PX_GPIO_B12 PX_GPIO_LCD_BACKLIGHT</v>
       </c>
       <c r="U31" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B12 PX_GPIO_LCD_BACKLIGHT</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_backlight = {PX_GPIO_LCD_BACKLIGHT};</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>61</v>
       </c>
@@ -3300,14 +3304,14 @@
       </c>
       <c r="S32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_sck = {PX_GPIO_SPI2_SCK};</v>
+        <v>#define PX_GPIO_B13 PX_GPIO_SPI2_SCK</v>
       </c>
       <c r="U32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B13 PX_GPIO_SPI2_SCK</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_sck = {PX_GPIO_SPI2_SCK};</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>62</v>
       </c>
@@ -3366,14 +3370,14 @@
       </c>
       <c r="S33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_miso = {PX_GPIO_SPI2_MISO};</v>
+        <v>#define PX_GPIO_B14 PX_GPIO_SPI2_MISO</v>
       </c>
       <c r="U33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B14 PX_GPIO_SPI2_MISO</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_miso = {PX_GPIO_SPI2_MISO};</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>63</v>
       </c>
@@ -3432,14 +3436,14 @@
       </c>
       <c r="S34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi2_mosi = {PX_GPIO_SPI2_MOSI};</v>
+        <v>#define PX_GPIO_B15 PX_GPIO_SPI2_MOSI</v>
       </c>
       <c r="U34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_B15 PX_GPIO_SPI2_MOSI</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi2_mosi = {PX_GPIO_SPI2_MOSI};</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -3457,7 +3461,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>76</v>
       </c>
@@ -3516,14 +3520,14 @@
       </c>
       <c r="S36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_btn_1_lt = {PX_GPIO_LCD_BTN_1_LT};</v>
+        <v>#define PX_GPIO_C0 PX_GPIO_LCD_BTN_1_LT</v>
       </c>
       <c r="U36" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C0 PX_GPIO_LCD_BTN_1_LT</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_1_lt = {PX_GPIO_LCD_BTN_1_LT};</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>66</v>
       </c>
@@ -3582,14 +3586,14 @@
       </c>
       <c r="S37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_6 = {PX_GPIO_6};</v>
+        <v>#define PX_GPIO_C1 PX_GPIO_6</v>
       </c>
       <c r="U37" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C1 PX_GPIO_6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_6 = {PX_GPIO_6};</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
@@ -3648,14 +3652,14 @@
       </c>
       <c r="S38" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_5 = {PX_GPIO_5};</v>
+        <v>#define PX_GPIO_C2 PX_GPIO_5</v>
       </c>
       <c r="U38" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C2 PX_GPIO_5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_5 = {PX_GPIO_5};</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>68</v>
       </c>
@@ -3714,14 +3718,14 @@
       </c>
       <c r="S39" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_4 = {PX_GPIO_4};</v>
+        <v>#define PX_GPIO_C3 PX_GPIO_4</v>
       </c>
       <c r="U39" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C3 PX_GPIO_4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_4 = {PX_GPIO_4};</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -3780,14 +3784,14 @@
       </c>
       <c r="S40" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_adc2 = {PX_GPIO_ADC2};</v>
+        <v>#define PX_GPIO_C4 PX_GPIO_ADC2</v>
       </c>
       <c r="U40" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C4 PX_GPIO_ADC2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc2 = {PX_GPIO_ADC2};</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>42</v>
       </c>
@@ -3846,14 +3850,14 @@
       </c>
       <c r="S41" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_adc1 = {PX_GPIO_ADC1};</v>
+        <v>#define PX_GPIO_C5 PX_GPIO_ADC1</v>
       </c>
       <c r="U41" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C5 PX_GPIO_ADC1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_adc1 = {PX_GPIO_ADC1};</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
@@ -3912,14 +3916,14 @@
       </c>
       <c r="S42" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_pwm_buzzer = {PX_GPIO_PWM_BUZZER};</v>
+        <v>#define PX_GPIO_C6 PX_GPIO_PWM_BUZZER</v>
       </c>
       <c r="U42" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C6 PX_GPIO_PWM_BUZZER</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_pwm_buzzer = {PX_GPIO_PWM_BUZZER};</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>72</v>
       </c>
@@ -3978,14 +3982,14 @@
       </c>
       <c r="S43" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_vbat_meas_en = {PX_GPIO_VBAT_MEAS_EN};</v>
+        <v>#define PX_GPIO_C7 PX_GPIO_VBAT_MEAS_EN</v>
       </c>
       <c r="U43" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C7 PX_GPIO_VBAT_MEAS_EN</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_vbat_meas_en = {PX_GPIO_VBAT_MEAS_EN};</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>73</v>
       </c>
@@ -4044,14 +4048,14 @@
       </c>
       <c r="S44" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_3v3_hold = {PX_GPIO_3V3_HOLD};</v>
+        <v>#define PX_GPIO_C8 PX_GPIO_3V3_HOLD</v>
       </c>
       <c r="U44" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C8 PX_GPIO_3V3_HOLD</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_3v3_hold = {PX_GPIO_3V3_HOLD};</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>74</v>
       </c>
@@ -4110,14 +4114,14 @@
       </c>
       <c r="S45" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_btn_6_yes = {PX_GPIO_LCD_BTN_6_YES};</v>
+        <v>#define PX_GPIO_C9 PX_GPIO_LCD_BTN_6_YES</v>
       </c>
       <c r="U45" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C9 PX_GPIO_LCD_BTN_6_YES</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_6_yes = {PX_GPIO_LCD_BTN_6_YES};</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>90</v>
       </c>
@@ -4176,14 +4180,14 @@
       </c>
       <c r="S46" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart4_tx = {PX_GPIO_UART4_TX};</v>
+        <v>#define PX_GPIO_C10 PX_GPIO_UART4_TX</v>
       </c>
       <c r="U46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C10 PX_GPIO_UART4_TX</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart4_tx = {PX_GPIO_UART4_TX};</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>91</v>
       </c>
@@ -4242,14 +4246,14 @@
       </c>
       <c r="S47" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_uart4_rx = {PX_GPIO_UART4_RX};</v>
+        <v>#define PX_GPIO_C11 PX_GPIO_UART4_RX</v>
       </c>
       <c r="U47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C11 PX_GPIO_UART4_RX</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_uart4_rx = {PX_GPIO_UART4_RX};</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>75</v>
       </c>
@@ -4308,14 +4312,14 @@
       </c>
       <c r="S48" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_btn_4_dn = {PX_GPIO_LCD_BTN_4_DN};</v>
+        <v>#define PX_GPIO_C12 PX_GPIO_LCD_BTN_4_DN</v>
       </c>
       <c r="U48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C12 PX_GPIO_LCD_BTN_4_DN</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_4_dn = {PX_GPIO_LCD_BTN_4_DN};</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>83</v>
       </c>
@@ -4374,14 +4378,14 @@
       </c>
       <c r="S49" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_lcd_btn_3_up = {PX_GPIO_LCD_BTN_3_UP};</v>
+        <v>#define PX_GPIO_C13 PX_GPIO_LCD_BTN_3_UP</v>
       </c>
       <c r="U49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C13 PX_GPIO_LCD_BTN_3_UP</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_lcd_btn_3_up = {PX_GPIO_LCD_BTN_3_UP};</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>77</v>
       </c>
@@ -4440,14 +4444,14 @@
       </c>
       <c r="S50" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_osc32_in = {PX_GPIO_OSC32_IN};</v>
+        <v>#define PX_GPIO_C14 PX_GPIO_OSC32_IN</v>
       </c>
       <c r="U50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C14 PX_GPIO_OSC32_IN</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_osc32_in = {PX_GPIO_OSC32_IN};</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
@@ -4506,14 +4510,14 @@
       </c>
       <c r="S51" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_osc32_out = {PX_GPIO_OSC32_OUT};</v>
+        <v>#define PX_GPIO_C15 PX_GPIO_OSC32_OUT</v>
       </c>
       <c r="U51" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_C15 PX_GPIO_OSC32_OUT</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_osc32_out = {PX_GPIO_OSC32_OUT};</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -4531,7 +4535,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>81</v>
       </c>
@@ -4590,14 +4594,14 @@
       </c>
       <c r="S53" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_spi1_cs_sd = {PX_GPIO_SPI1_CS_SD};</v>
+        <v>#define PX_GPIO_D2 PX_GPIO_SPI1_CS_SD</v>
       </c>
       <c r="U53" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_D2 PX_GPIO_SPI1_CS_SD</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_spi1_cs_sd = {PX_GPIO_SPI1_CS_SD};</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -4615,7 +4619,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="2"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -4674,14 +4678,14 @@
       </c>
       <c r="S55" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>static const px_gpio_handle_t px_gpio_usr_led = {PX_GPIO_USR_LED};</v>
+        <v>#define PX_GPIO_H0 PX_GPIO_USR_LED</v>
       </c>
       <c r="U55" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>#define PX_GPIO_H0 PX_GPIO_USR_LED</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+        <v>static const px_gpio_handle_t px_gpio_usr_led = {PX_GPIO_USR_LED};</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>82</v>
       </c>
@@ -4739,15 +4743,15 @@
         <v>#define PX_GPIO_LCD_BTN_2_RT PX_GPIO(H, 1, PX_GPIO_MODE_IN, PX_GPIO_OTYPE_NA, PX_GPIO_OSPEED_NA, PX_GPIO_PULL_UP, PX_GPIO_OUT_INIT_NA, PX_GPIO_AF_NA)</v>
       </c>
       <c r="S56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S56" si="3">CONCATENATE("#define PX_GPIO_",$B56,$C56," ",$A56)</f>
+        <v>#define PX_GPIO_H1 PX_GPIO_LCD_BTN_2_RT</v>
+      </c>
+      <c r="U56" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>static const px_gpio_handle_t px_gpio_lcd_btn_2_rt = {PX_GPIO_LCD_BTN_2_RT};</v>
       </c>
-      <c r="U56" s="3" t="str">
-        <f t="shared" ref="U56" si="3">CONCATENATE("#define PX_GPIO_",$B56,$C56," ",$A56)</f>
-        <v>#define PX_GPIO_H1 PX_GPIO_LCD_BTN_2_RT</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:21" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
